--- a/Aluminum/3 MONTH/20226/Aluminum_for_wma_test_plot.xlsx
+++ b/Aluminum/3 MONTH/20226/Aluminum_for_wma_test_plot.xlsx
@@ -826,7 +826,7 @@
         <v>44712</v>
       </c>
       <c r="B40">
-        <v>2892.5</v>
+        <v>2855</v>
       </c>
       <c r="C40">
         <v>3301.862786580165</v>
